--- a/auto_wsp/logistics/Preinscripcion.xlsx
+++ b/auto_wsp/logistics/Preinscripcion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPG-UNAC\Desktop\NEW_AUTOWSP\logistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPG-UNAC\Desktop\NEW_AUTOWSP\auto_wsp\logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{763CA5BF-3758-4610-981A-55B4E0C519F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CA8487-8C63-4F25-9B18-41508BCD4BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F342EE-0E7B-4ADC-AD4C-BB4F911D814F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Nombre</t>
   </si>
@@ -56,20 +56,115 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Programa</t>
-  </si>
-  <si>
     <t>Name_Programa</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trujillo </t>
+  </si>
+  <si>
+    <t>FIME</t>
+  </si>
+  <si>
+    <t>Maestría en Gestión de Mantenimienti</t>
+  </si>
+  <si>
+    <t>edalramt@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Huapaya</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>FIIS</t>
+  </si>
+  <si>
+    <t>Maestría</t>
+  </si>
+  <si>
+    <t>Doctorado</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>nicolas@gmail.com</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Altamirano</t>
+  </si>
+  <si>
+    <t>Quispe</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>Enfermería</t>
+  </si>
+  <si>
+    <t>970 525 724</t>
+  </si>
+  <si>
+    <t>927 953 033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeyson </t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>FIPA</t>
+  </si>
+  <si>
+    <t>Agricultura de tamales</t>
+  </si>
+  <si>
+    <t>jeysonramirez123@gmail.com</t>
+  </si>
+  <si>
+    <t>fernando@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>Programa2</t>
+  </si>
+  <si>
+    <t>Facultad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -91,20 +186,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -115,6 +537,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B4C0BBB-2734-49D2-A4BE-F120F04CC659}" name="Tabla1" displayName="Tabla1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:I5" xr:uid="{1B4C0BBB-2734-49D2-A4BE-F120F04CC659}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00D726A9-BB23-4052-9424-6CA578A723B8}" name="Nombre" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{23C695E8-3F47-48D0-A244-99871CCC6643}" name="Apellido_Paterno" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{7A3AAE42-F035-487B-90B0-D94C782F55B6}" name="Apellido_Materno" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{BBEAF6AB-7491-4647-990D-B0E71366B16E}" name="DNI" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1A8B3773-A35C-4AAF-A7C7-090E5A8C5789}" name="Facultad" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2142E7D6-21E6-48D0-962C-1026ACB03FB5}" name="Programa2" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{4184937A-372D-44DA-952C-F4FEFC126B29}" name="Name_Programa" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8CAE51E0-B9C7-4B5B-A810-AB3549D14AA0}" name="Celular" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{71464A03-96B1-4BC8-94F6-1CC13C92E1EB}" name="Correo" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,47 +874,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4507D587-797B-46A3-9288-99CECB794320}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60733136</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>912594832</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12233445</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1">
+        <v>913258769</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12345678</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8">
+        <v>90876545</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{73861AE9-FA6C-4A76-8B95-B2A9A436686A}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{CBEEA0F3-2A05-4C69-8526-502FF90A52AC}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{25217635-584A-4742-AAAB-3CFEE97769A0}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{B359891F-4A21-490C-946F-80176EC7A6E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>